--- a/output_all_students_Train_v10.xlsx
+++ b/output_all_students_Train_v10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msmailarielac-my.sharepoint.com/personal/binyamin_yagoda_msmail_ariel_ac_il/Documents/לימודים תעונ/שנה ג/כרייה וניתוח נתונים/מטלות/DM_hw_FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{EBBF87A5-1895-4AF9-A8DC-C60EEC61E7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2994DC1C-51B7-4466-836C-272710D43CCD}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{EBBF87A5-1895-4AF9-A8DC-C60EEC61E7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA94DCE-1E7A-4115-8BE8-60391F1A5C88}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7035,8 +7035,8 @@
   <dimension ref="A1:X699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D379" sqref="D1:D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
